--- a/datos_fbref/CLASIFICACION_LIGA_Primeira_Liga.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Primeira_Liga.xlsx
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -1082,26 +1082,26 @@
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="J12" t="n">
         <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L L D W L</t>
+          <t>L D W L L</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
@@ -1368,33 +1368,33 @@
         <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I17" t="n">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>L L L L L</t>
+          <t>L D D D W</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2920</v>
+        <v>2120</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Vinícius - 5</t>
+          <t>Maranhão - 6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Gabriel Batista</t>
+          <t>Bernardo Fontes</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1405,52 +1405,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>L L D D D</t>
+          <t>L L L L L</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2120</v>
+        <v>2920</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Maranhão - 5</t>
+          <t>Vinícius - 5</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Bernardo Fontes</t>
+          <t>Gabriel Batista</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
